--- a/Pet Detective (PD)/PetDetectiveSummary.xlsx
+++ b/Pet Detective (PD)/PetDetectiveSummary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="22035" windowHeight="11325"/>
+    <workbookView xWindow="585" yWindow="735" windowWidth="18915" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="PetDetectiveSummary" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>CBC, (PC not Neos)</t>
   </si>
   <si>
-    <t>Time (sec)</t>
-  </si>
-  <si>
     <t>Enum Nodes</t>
   </si>
   <si>
@@ -88,7 +85,10 @@
     <t>initialized with solution from PD10 using mipstart</t>
   </si>
   <si>
-    <t>4807.89, 9364</t>
+    <t>CBC Cmd line Time (sec)</t>
+  </si>
+  <si>
+    <t>SolverStudio selected solver Time (sec)</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +136,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,9 +167,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -209,18 +212,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -272,7 +288,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -387,7 +402,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.72</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -432,27 +447,27 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0469999999999999</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5469999999999999</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4380000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.5630000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>269.28899999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>351.53</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>851.39</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>4807.8900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
                   <c:v>24133.05</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0">
                   <c:v>2938.97</c:v>
                 </c:pt>
               </c:numCache>
@@ -468,11 +483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324231936"/>
-        <c:axId val="324233856"/>
+        <c:axId val="319311232"/>
+        <c:axId val="317351424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324231936"/>
+        <c:axId val="319311232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -496,19 +511,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324233856"/>
+        <c:crossAx val="317351424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324233856"/>
+        <c:axId val="317351424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,14 +545,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324231936"/>
+        <c:crossAx val="319311232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1068,39 +1081,39 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1112,28 +1125,28 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1141,43 +1154,43 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>3</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <f t="shared" ref="B3:B11" si="0">1+2*A3</f>
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31">
         <f>0.015625</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="28">
         <f>0.03125</f>
         <v>3.125E-2</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="29">
         <v>57</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="29">
         <v>255</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="29">
         <v>696</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="29">
         <v>38</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="29">
         <v>217</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="29">
         <v>30</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1189,77 +1202,77 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32">
         <f>0.003999+0.006998</f>
         <v>1.0997E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <f>0.230964+0.007998</f>
         <v>0.23896200000000001</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>112</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>698</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>1978</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>66</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>632</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>56</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32">
         <f>0.005999+0.002999</f>
         <v>8.9979999999999991E-3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f>0.144977+0.015997</f>
         <v>0.16097400000000001</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>180</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>1467</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>4120</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>102</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>1365</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>90</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1274,436 +1287,499 @@
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="32">
         <f>0.0049999+0.011998</f>
         <v>1.69979E-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f>0.027995+0.98285</f>
         <v>1.010845</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>258</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>2673</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>7788</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>146</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>2527</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>132</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>7</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="C7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="33">
         <f>0.001999+0.009998</f>
         <v>1.1997000000000001E-2</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="30">
         <f>0.483926+299.899</f>
         <v>300.382926</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>357</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>4405</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>12726</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>198</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>4207</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="23">
         <v>182</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>8</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34">
         <f>0.013997+0.0029999</f>
         <v>1.6996900000000002E-2</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <f>422.675+1.84572</f>
         <v>424.52071999999998</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>472</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>6763</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <v>19888</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>258</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <v>6505</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="23">
         <v>240</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>9</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="C9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34">
         <f>0.020996+0.006998</f>
         <v>2.7994000000000002E-2</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <f>15.74+3616.57</f>
         <v>3632.31</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>603</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>9840</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>29016</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <v>326</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <v>9514</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="23">
         <v>306</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>10</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="C10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34">
         <f>0.006998+0.025996</f>
         <v>3.2993999999999996E-2</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <f>61.2627+13084</f>
         <v>13145.262699999999</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>750</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>13733</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>40580</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <v>402</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <v>13331</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="23">
         <v>380</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>11</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34">
         <f>0.035994+0.0099998</f>
         <v>4.5993800000000001E-2</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <f>33.6549+10666.4</f>
         <v>10700.054899999999</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>913</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>18538</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>54868</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <v>486</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <v>18052</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="23">
         <v>462</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="6" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="D15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <v>3</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <f t="shared" ref="B16" si="1">1+2*A16</f>
         <v>7</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="C16" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="35">
         <v>0.71899999999999997</v>
       </c>
+      <c r="E16" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <f t="shared" ref="B17:B24" si="2">1+2*A17</f>
         <v>9</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="C17" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="35">
         <v>1.0469999999999999</v>
       </c>
+      <c r="E17" s="35">
+        <v>0.36</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>5</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="C18" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="35">
         <v>1.5469999999999999</v>
       </c>
+      <c r="E18" s="35">
+        <v>0.17</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>6</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="C19" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="35">
         <v>2.4380000000000002</v>
       </c>
+      <c r="E19" s="35">
+        <v>1.42</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>7</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="C20" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="35">
         <v>8.5630000000000006</v>
       </c>
+      <c r="E20" s="37">
+        <v>351.53</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1559</v>
+      </c>
+      <c r="G20" s="8">
+        <v>330761</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="25">
         <v>8</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>269.28899999999999</v>
+      <c r="C21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>270.774</v>
+      </c>
+      <c r="E21" s="37">
+        <v>851.39</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4901</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1263020</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <v>9</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="C22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4784.8999999999996</v>
+      </c>
+      <c r="E22" s="37">
+        <v>4807.8900000000003</v>
+      </c>
+      <c r="F22" s="8">
         <v>47199</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>16067299</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <v>10</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="C23" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="37">
         <v>24133.05</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>56483</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>32975824</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>11</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="C24" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2423</v>
+      </c>
+      <c r="E24" s="37">
         <v>2938.97</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>1663</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>1799546</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>23</v>
+      <c r="H24" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
